--- a/sw/project_files/Hendrix_M/Release/Hendrix_LiteV2_Notes/RD-Quick Test Report.xlsx
+++ b/sw/project_files/Hendrix_M/Release/Hendrix_LiteV2_Notes/RD-Quick Test Report.xlsx
@@ -5,20 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\&amp;Zound\Hendrix_M_Lite\New folder\Hendrix_M_Lite_GD\sw\project_files\Hendrix_M\Release\Hendrix_Lite_Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\&amp;Zound\Hendrix_M_Lite\New folder\Hendrix_M_Lite_GD\sw\project_files\Hendrix_M\Release\Hendrix_LiteV2_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7635" tabRatio="664"/>
   </bookViews>
   <sheets>
-    <sheet name="RDQT 6.0.2" sheetId="11" r:id="rId1"/>
-    <sheet name="RDQT 1.0.2" sheetId="10" r:id="rId2"/>
-    <sheet name="RDQT 1.0.1" sheetId="9" r:id="rId3"/>
-    <sheet name="RDQT 1.0.0" sheetId="8" r:id="rId4"/>
+    <sheet name="RDQT 6.0.3" sheetId="12" r:id="rId1"/>
+    <sheet name="RDQT 6.0.2" sheetId="11" r:id="rId2"/>
+    <sheet name="RDQT 1.0.2" sheetId="10" r:id="rId3"/>
+    <sheet name="RDQT 1.0.1" sheetId="9" r:id="rId4"/>
+    <sheet name="RDQT 1.0.0" sheetId="8" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="Light">[1]List!$A$2:$A$6</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="69">
   <si>
     <t>Pass</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -299,6 +300,15 @@
   </si>
   <si>
     <t>Not test</t>
+  </si>
+  <si>
+    <t>6.0.3</t>
+  </si>
+  <si>
+    <t>NOT TEST</t>
+  </si>
+  <si>
+    <t>BT firmware havn't change</t>
   </si>
 </sst>
 </file>
@@ -461,7 +471,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -494,6 +504,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -534,6 +547,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -549,19 +568,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -936,8 +949,8 @@
   </sheetPr>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20:L20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -952,14 +965,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="31"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="11" t="s">
+      <c r="A1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -970,48 +983,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="33" t="s">
+      <c r="G2" s="31"/>
+      <c r="H2" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="30"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="27" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29">
-        <v>44361</v>
-      </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="34">
+        <v>44392</v>
+      </c>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="33"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
@@ -1020,24 +1033,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1">
       <c r="A5" s="4">
@@ -1046,22 +1059,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="15"/>
     </row>
     <row r="6" spans="1:12" ht="40.9" customHeight="1">
       <c r="A6" s="4">
@@ -1070,22 +1083,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
       <c r="H6" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" spans="1:12" ht="59.45" customHeight="1">
       <c r="A7" s="4">
@@ -1094,22 +1107,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="14"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:12" ht="59.45" customHeight="1">
       <c r="A8" s="4">
@@ -1118,22 +1131,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="14"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1">
       <c r="A9" s="4">
@@ -1142,22 +1155,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="14"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1">
       <c r="A10" s="4">
@@ -1166,22 +1179,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
       <c r="H10" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="20"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:12" ht="52.15" customHeight="1">
       <c r="A11" s="4">
@@ -1190,22 +1203,24 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="22"/>
+        <v>67</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="22"/>
+      <c r="L11" s="23"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1">
       <c r="A12" s="4">
@@ -1214,22 +1229,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="22"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
     </row>
     <row r="13" spans="1:12" ht="70.900000000000006" customHeight="1">
       <c r="A13" s="4">
@@ -1238,22 +1253,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="15"/>
     </row>
     <row r="14" spans="1:12" ht="59.45" customHeight="1">
       <c r="A14" s="4">
@@ -1262,22 +1277,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
       <c r="H14" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="15"/>
     </row>
     <row r="15" spans="1:12" ht="59.45" customHeight="1">
       <c r="A15" s="10">
@@ -1286,18 +1301,18 @@
       <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
       <c r="H15" s="4"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="15"/>
     </row>
     <row r="16" spans="1:12" ht="59.45" customHeight="1">
       <c r="A16" s="10">
@@ -1306,18 +1321,18 @@
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
       <c r="H16" s="4"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="14"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="15"/>
     </row>
     <row r="17" spans="1:12" ht="59.45" customHeight="1">
       <c r="A17" s="10">
@@ -1326,18 +1341,18 @@
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="14"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="15"/>
     </row>
     <row r="18" spans="1:12" ht="59.45" customHeight="1">
       <c r="A18" s="10">
@@ -1346,18 +1361,18 @@
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
       <c r="H18" s="4"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="14"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="15"/>
     </row>
     <row r="19" spans="1:12" ht="59.45" customHeight="1">
       <c r="A19" s="4">
@@ -1366,36 +1381,36 @@
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="13"/>
-      <c r="L19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="15"/>
     </row>
     <row r="20" spans="1:12" ht="59.45" customHeight="1">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
       <c r="H20" s="4"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="14"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -1456,7 +1471,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G7"/>
+      <selection activeCell="C3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1471,14 +1486,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="31"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="8" t="s">
+      <c r="A1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -1489,48 +1504,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="27" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29">
-        <v>43654</v>
-      </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="34">
+        <v>44361</v>
+      </c>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="33"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
@@ -1539,24 +1554,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1">
       <c r="A5" s="4">
@@ -1565,22 +1580,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="15"/>
     </row>
     <row r="6" spans="1:12" ht="40.9" customHeight="1">
       <c r="A6" s="4">
@@ -1589,22 +1604,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
       <c r="H6" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" spans="1:12" ht="59.45" customHeight="1">
       <c r="A7" s="4">
@@ -1613,22 +1628,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="14"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:12" ht="59.45" customHeight="1">
       <c r="A8" s="4">
@@ -1637,22 +1652,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="14"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1">
       <c r="A9" s="4">
@@ -1661,22 +1676,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="14"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1">
       <c r="A10" s="4">
@@ -1685,22 +1700,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
       <c r="H10" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="20"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:12" ht="52.15" customHeight="1">
       <c r="A11" s="4">
@@ -1709,22 +1724,22 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="22"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="23"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1">
       <c r="A12" s="4">
@@ -1733,22 +1748,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="22"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
     </row>
     <row r="13" spans="1:12" ht="70.900000000000006" customHeight="1">
       <c r="A13" s="4">
@@ -1757,22 +1772,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="15"/>
     </row>
     <row r="14" spans="1:12" ht="59.45" customHeight="1">
       <c r="A14" s="4">
@@ -1781,22 +1796,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
       <c r="H14" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="15"/>
     </row>
     <row r="15" spans="1:12" ht="59.45" customHeight="1">
       <c r="A15" s="10">
@@ -1805,22 +1820,18 @@
       <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="15"/>
     </row>
     <row r="16" spans="1:12" ht="59.45" customHeight="1">
       <c r="A16" s="10">
@@ -1829,22 +1840,18 @@
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="14"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="15"/>
     </row>
     <row r="17" spans="1:12" ht="59.45" customHeight="1">
       <c r="A17" s="10">
@@ -1853,22 +1860,18 @@
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="12"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="14"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="15"/>
     </row>
     <row r="18" spans="1:12" ht="59.45" customHeight="1">
       <c r="A18" s="10">
@@ -1877,22 +1880,18 @@
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" s="12"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="14"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="15"/>
     </row>
     <row r="19" spans="1:12" ht="59.45" customHeight="1">
       <c r="A19" s="4">
@@ -1901,40 +1900,36 @@
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" s="14"/>
+      <c r="L19" s="15"/>
     </row>
     <row r="20" spans="1:12" ht="59.45" customHeight="1">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="4"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="14"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -1982,7 +1977,6 @@
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="J18:L18"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1993,10 +1987,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2011,14 +2005,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="31"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="7" t="s">
+      <c r="A1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -2029,48 +2023,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="27" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="27" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29">
-        <v>43189</v>
-      </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="34">
+        <v>43654</v>
+      </c>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="33"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
@@ -2079,24 +2073,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1">
       <c r="A5" s="4">
@@ -2105,22 +2099,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
+      <c r="C5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="15"/>
     </row>
     <row r="6" spans="1:12" ht="40.9" customHeight="1">
       <c r="A6" s="4">
@@ -2129,22 +2123,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
       <c r="H6" s="4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" spans="1:12" ht="59.45" customHeight="1">
       <c r="A7" s="4">
@@ -2153,22 +2147,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="14"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:12" ht="59.45" customHeight="1">
       <c r="A8" s="4">
@@ -2177,22 +2171,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="14"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1">
       <c r="A9" s="4">
@@ -2201,22 +2195,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="14"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1">
       <c r="A10" s="4">
@@ -2225,22 +2219,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
       <c r="H10" s="4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="20"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:12" ht="52.15" customHeight="1">
       <c r="A11" s="4">
@@ -2249,22 +2243,22 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="22"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="23"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1">
       <c r="A12" s="4">
@@ -2273,22 +2267,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="22"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
     </row>
     <row r="13" spans="1:12" ht="70.900000000000006" customHeight="1">
       <c r="A13" s="4">
@@ -2297,22 +2291,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="15"/>
     </row>
     <row r="14" spans="1:12" ht="59.45" customHeight="1">
       <c r="A14" s="4">
@@ -2321,142 +2315,185 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
       <c r="H14" s="4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="15"/>
     </row>
     <row r="15" spans="1:12" ht="59.45" customHeight="1">
-      <c r="A15" s="4">
+      <c r="A15" s="10">
         <v>11</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
       <c r="H15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
+        <v>60</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="19"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="15"/>
     </row>
     <row r="16" spans="1:12" ht="59.45" customHeight="1">
-      <c r="A16" s="4">
+      <c r="A16" s="10">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
       <c r="H16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="14"/>
+        <v>60</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="19"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="15"/>
     </row>
     <row r="17" spans="1:12" ht="59.45" customHeight="1">
-      <c r="A17" s="4">
+      <c r="A17" s="10">
         <v>13</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
       <c r="H17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="14"/>
+        <v>60</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="13"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="15"/>
     </row>
     <row r="18" spans="1:12" ht="59.45" customHeight="1">
-      <c r="A18" s="4">
+      <c r="A18" s="10">
         <v>14</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
+      <c r="C18" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
       <c r="H18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="14"/>
-    </row>
-    <row r="19" spans="1:12" ht="12.75" customHeight="1"/>
+        <v>60</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="13"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A19" s="4">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="13"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="15"/>
+    </row>
+    <row r="20" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A20" s="4">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="43">
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="J16:L16"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="J17:L17"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="J18:L18"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="J13:L13"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="J15:L15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="J13:L13"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="J12:L12"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="C8:G8"/>
@@ -2490,6 +2527,503 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="8.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="2" customWidth="1"/>
+    <col min="3" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="11.375" style="2" customWidth="1"/>
+    <col min="9" max="11" width="9" style="2"/>
+    <col min="12" max="12" width="51" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="33"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="34">
+        <v>43189</v>
+      </c>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="33"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+    </row>
+    <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" spans="1:12" ht="40.9" customHeight="1">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
+    </row>
+    <row r="7" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="1:12" ht="51" customHeight="1">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="1:12" ht="51" customHeight="1">
+      <c r="A10" s="4">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="21"/>
+    </row>
+    <row r="11" spans="1:12" ht="52.15" customHeight="1">
+      <c r="A11" s="4">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="19"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="23"/>
+    </row>
+    <row r="12" spans="1:12" ht="49.9" customHeight="1">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="19"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
+    </row>
+    <row r="13" spans="1:12" ht="70.900000000000006" customHeight="1">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="19"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A14" s="4">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="19"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="15"/>
+    </row>
+    <row r="15" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A15" s="4">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="19"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="15"/>
+    </row>
+    <row r="16" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A16" s="4">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="19"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="15"/>
+    </row>
+    <row r="17" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A17" s="4">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="19"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A18" s="4">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="14"/>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="1:12" ht="12.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="39">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="J16:L16"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2506,13 +3040,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="31"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2524,48 +3058,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="27" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="33" t="s">
+      <c r="G2" s="31"/>
+      <c r="H2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="30"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="27" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29">
+      <c r="G3" s="31"/>
+      <c r="H3" s="34">
         <v>43041</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="30"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="33"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
@@ -2574,24 +3108,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1">
       <c r="A5" s="4">
@@ -2600,24 +3134,24 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="15"/>
     </row>
     <row r="6" spans="1:12" ht="40.9" customHeight="1">
       <c r="A6" s="4">
@@ -2626,22 +3160,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
       <c r="H6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" spans="1:12" ht="59.45" customHeight="1">
       <c r="A7" s="4">
@@ -2650,22 +3184,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="14"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:12" ht="59.45" customHeight="1">
       <c r="A8" s="4">
@@ -2674,22 +3208,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="14"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1">
       <c r="A9" s="4">
@@ -2698,24 +3232,24 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" spans="1:12" ht="59.45" customHeight="1">
       <c r="A10" s="4">
@@ -2724,22 +3258,22 @@
       <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="14"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="15"/>
     </row>
     <row r="11" spans="1:12" ht="51" customHeight="1">
       <c r="A11" s="4">
@@ -2748,24 +3282,24 @@
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
       <c r="H11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="15"/>
     </row>
     <row r="12" spans="1:12" ht="52.15" customHeight="1">
       <c r="A12" s="4">
@@ -2774,54 +3308,54 @@
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="22"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
     </row>
     <row r="13" spans="1:12" ht="49.9" customHeight="1">
       <c r="A13" s="4">
         <v>9</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="22"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23"/>
     </row>
     <row r="14" spans="1:12" ht="70.900000000000006" customHeight="1">
       <c r="A14" s="4">
         <v>10</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="15"/>
     </row>
     <row r="15" spans="1:12" ht="59.45" customHeight="1"/>
     <row r="16" spans="1:12" ht="59.45" customHeight="1"/>
@@ -2831,6 +3365,28 @@
     <row r="20" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="C6:G6"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:G3"/>
@@ -2840,28 +3396,6 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:L2"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="J12:L12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2869,15 +3403,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_dlc_DocId xmlns="72de59d5-254d-430a-8862-e2bf58cab753">6TCUH2D2FU37-209-14453</_dlc_DocId>
@@ -2889,7 +3414,66 @@
 </p:properties>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006ADE9B120D8C2544A30794E0CE6B3CF6" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6b7a23d33ee8a228344a1c6303b6d86b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72de59d5-254d-430a-8862-e2bf58cab753" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b905d02d852158c2afe173951ebabb5b" ns2:_="">
     <xsd:import namespace="72de59d5-254d-430a-8862-e2bf58cab753"/>
@@ -3034,65 +3618,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0AA1759-4A2E-4491-9C5A-7766559224EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90A17C51-7000-43B7-9373-E2C13FAD8445}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -3108,7 +3634,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0AA1759-4A2E-4491-9C5A-7766559224EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFF19337-409A-4CFF-80EA-D2526D7612D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6290CC7F-B9B0-4D98-A55D-A30816CE8732}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3124,12 +3666,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFF19337-409A-4CFF-80EA-D2526D7612D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/sw/project_files/Hendrix_M/Release/Hendrix_LiteV2_Notes/RD-Quick Test Report.xlsx
+++ b/sw/project_files/Hendrix_M/Release/Hendrix_LiteV2_Notes/RD-Quick Test Report.xlsx
@@ -12,14 +12,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7635" tabRatio="664"/>
   </bookViews>
   <sheets>
-    <sheet name="RDQT 6.0.3" sheetId="12" r:id="rId1"/>
-    <sheet name="RDQT 6.0.2" sheetId="11" r:id="rId2"/>
-    <sheet name="RDQT 1.0.2" sheetId="10" r:id="rId3"/>
-    <sheet name="RDQT 1.0.1" sheetId="9" r:id="rId4"/>
-    <sheet name="RDQT 1.0.0" sheetId="8" r:id="rId5"/>
+    <sheet name="RDQT 6.0.4" sheetId="13" r:id="rId1"/>
+    <sheet name="RDQT 6.0.3" sheetId="12" r:id="rId2"/>
+    <sheet name="RDQT 6.0.2" sheetId="11" r:id="rId3"/>
+    <sheet name="RDQT 1.0.2" sheetId="10" r:id="rId4"/>
+    <sheet name="RDQT 1.0.1" sheetId="9" r:id="rId5"/>
+    <sheet name="RDQT 1.0.0" sheetId="8" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="Light">[1]List!$A$2:$A$6</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="71">
   <si>
     <t>Pass</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -309,6 +310,12 @@
   </si>
   <si>
     <t>BT firmware havn't change</t>
+  </si>
+  <si>
+    <t>6.0.4</t>
+  </si>
+  <si>
+    <t>Hendrix_M_Lite_V2</t>
   </si>
 </sst>
 </file>
@@ -471,7 +478,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -504,6 +511,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -949,8 +959,8 @@
   </sheetPr>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -965,14 +975,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="25"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="12" t="s">
+      <c r="A1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -983,48 +993,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="30" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32" t="s">
+      <c r="G2" s="32"/>
+      <c r="H2" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="33"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="34"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="30" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="34">
-        <v>44392</v>
-      </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="33"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="35">
+        <v>44396</v>
+      </c>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="34"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
@@ -1033,24 +1043,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1">
       <c r="A5" s="4">
@@ -1059,22 +1069,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="15"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:12" ht="40.9" customHeight="1">
       <c r="A6" s="4">
@@ -1083,22 +1093,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
       <c r="H6" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="15"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="16"/>
     </row>
     <row r="7" spans="1:12" ht="59.45" customHeight="1">
       <c r="A7" s="4">
@@ -1107,22 +1117,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="15"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
     </row>
     <row r="8" spans="1:12" ht="59.45" customHeight="1">
       <c r="A8" s="4">
@@ -1131,22 +1141,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="15"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1">
       <c r="A9" s="4">
@@ -1155,22 +1165,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="15"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="16"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1">
       <c r="A10" s="4">
@@ -1179,22 +1189,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
       <c r="H10" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="21"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
     </row>
     <row r="11" spans="1:12" ht="52.15" customHeight="1">
       <c r="A11" s="4">
@@ -1203,24 +1213,24 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="22"/>
-      <c r="L11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1">
       <c r="A12" s="4">
@@ -1229,22 +1239,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="23"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
     </row>
     <row r="13" spans="1:12" ht="70.900000000000006" customHeight="1">
       <c r="A13" s="4">
@@ -1253,22 +1263,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="15"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="16"/>
     </row>
     <row r="14" spans="1:12" ht="59.45" customHeight="1">
       <c r="A14" s="4">
@@ -1277,22 +1287,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="15"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="16"/>
     </row>
     <row r="15" spans="1:12" ht="59.45" customHeight="1">
       <c r="A15" s="10">
@@ -1301,18 +1311,18 @@
       <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
       <c r="H15" s="4"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="15"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="16"/>
     </row>
     <row r="16" spans="1:12" ht="59.45" customHeight="1">
       <c r="A16" s="10">
@@ -1321,18 +1331,18 @@
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
       <c r="H16" s="4"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="15"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="16"/>
     </row>
     <row r="17" spans="1:12" ht="59.45" customHeight="1">
       <c r="A17" s="10">
@@ -1341,18 +1351,18 @@
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="15"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="16"/>
     </row>
     <row r="18" spans="1:12" ht="59.45" customHeight="1">
       <c r="A18" s="10">
@@ -1361,18 +1371,18 @@
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
       <c r="H18" s="4"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="15"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="16"/>
     </row>
     <row r="19" spans="1:12" ht="59.45" customHeight="1">
       <c r="A19" s="4">
@@ -1381,36 +1391,36 @@
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="14"/>
-      <c r="L19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="16"/>
     </row>
     <row r="20" spans="1:12" ht="59.45" customHeight="1">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16"/>
       <c r="H20" s="4"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="15"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -1471,7 +1481,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E3"/>
+      <selection activeCell="J9" sqref="J9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1486,14 +1496,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="25"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="11" t="s">
+      <c r="A1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -1504,48 +1514,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="30" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32" t="s">
+      <c r="G2" s="32"/>
+      <c r="H2" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="33"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="34"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="30" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="34">
-        <v>44361</v>
-      </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="33"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="35">
+        <v>44392</v>
+      </c>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="34"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
@@ -1554,24 +1564,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1">
       <c r="A5" s="4">
@@ -1580,22 +1590,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="15"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:12" ht="40.9" customHeight="1">
       <c r="A6" s="4">
@@ -1604,22 +1614,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
       <c r="H6" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="15"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="16"/>
     </row>
     <row r="7" spans="1:12" ht="59.45" customHeight="1">
       <c r="A7" s="4">
@@ -1628,22 +1638,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="15"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
     </row>
     <row r="8" spans="1:12" ht="59.45" customHeight="1">
       <c r="A8" s="4">
@@ -1652,22 +1662,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="15"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1">
       <c r="A9" s="4">
@@ -1676,22 +1686,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="15"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="16"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1">
       <c r="A10" s="4">
@@ -1700,22 +1710,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
       <c r="H10" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="21"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
     </row>
     <row r="11" spans="1:12" ht="52.15" customHeight="1">
       <c r="A11" s="4">
@@ -1724,22 +1734,24 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="23"/>
+        <v>67</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1">
       <c r="A12" s="4">
@@ -1748,22 +1760,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="23"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
     </row>
     <row r="13" spans="1:12" ht="70.900000000000006" customHeight="1">
       <c r="A13" s="4">
@@ -1772,22 +1784,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="15"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="16"/>
     </row>
     <row r="14" spans="1:12" ht="59.45" customHeight="1">
       <c r="A14" s="4">
@@ -1796,22 +1808,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="15"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="16"/>
     </row>
     <row r="15" spans="1:12" ht="59.45" customHeight="1">
       <c r="A15" s="10">
@@ -1820,18 +1832,18 @@
       <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
       <c r="H15" s="4"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="15"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="16"/>
     </row>
     <row r="16" spans="1:12" ht="59.45" customHeight="1">
       <c r="A16" s="10">
@@ -1840,18 +1852,18 @@
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
       <c r="H16" s="4"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="15"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="16"/>
     </row>
     <row r="17" spans="1:12" ht="59.45" customHeight="1">
       <c r="A17" s="10">
@@ -1860,18 +1872,18 @@
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="15"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="16"/>
     </row>
     <row r="18" spans="1:12" ht="59.45" customHeight="1">
       <c r="A18" s="10">
@@ -1880,18 +1892,18 @@
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
       <c r="H18" s="4"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="15"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="16"/>
     </row>
     <row r="19" spans="1:12" ht="59.45" customHeight="1">
       <c r="A19" s="4">
@@ -1900,36 +1912,36 @@
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="14"/>
-      <c r="L19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="16"/>
     </row>
     <row r="20" spans="1:12" ht="59.45" customHeight="1">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16"/>
       <c r="H20" s="4"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="15"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -1990,7 +2002,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G7"/>
+      <selection activeCell="C3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2005,14 +2017,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="25"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="8" t="s">
+      <c r="A1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -2023,48 +2035,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="30" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="33"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="34"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="30" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="34">
-        <v>43654</v>
-      </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="33"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="35">
+        <v>44361</v>
+      </c>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="34"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
@@ -2073,24 +2085,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1">
       <c r="A5" s="4">
@@ -2099,22 +2111,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="15"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:12" ht="40.9" customHeight="1">
       <c r="A6" s="4">
@@ -2123,22 +2135,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
       <c r="H6" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="15"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="16"/>
     </row>
     <row r="7" spans="1:12" ht="59.45" customHeight="1">
       <c r="A7" s="4">
@@ -2147,22 +2159,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="15"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
     </row>
     <row r="8" spans="1:12" ht="59.45" customHeight="1">
       <c r="A8" s="4">
@@ -2171,22 +2183,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="15"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1">
       <c r="A9" s="4">
@@ -2195,22 +2207,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="15"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="16"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1">
       <c r="A10" s="4">
@@ -2219,22 +2231,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
       <c r="H10" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="21"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
     </row>
     <row r="11" spans="1:12" ht="52.15" customHeight="1">
       <c r="A11" s="4">
@@ -2243,22 +2255,22 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="23"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1">
       <c r="A12" s="4">
@@ -2267,22 +2279,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="23"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
     </row>
     <row r="13" spans="1:12" ht="70.900000000000006" customHeight="1">
       <c r="A13" s="4">
@@ -2291,22 +2303,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="15"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="16"/>
     </row>
     <row r="14" spans="1:12" ht="59.45" customHeight="1">
       <c r="A14" s="4">
@@ -2315,22 +2327,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="15"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="16"/>
     </row>
     <row r="15" spans="1:12" ht="59.45" customHeight="1">
       <c r="A15" s="10">
@@ -2339,22 +2351,18 @@
       <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="15"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="16"/>
     </row>
     <row r="16" spans="1:12" ht="59.45" customHeight="1">
       <c r="A16" s="10">
@@ -2363,22 +2371,18 @@
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="19"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="15"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="16"/>
     </row>
     <row r="17" spans="1:12" ht="59.45" customHeight="1">
       <c r="A17" s="10">
@@ -2387,22 +2391,18 @@
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="15"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="16"/>
     </row>
     <row r="18" spans="1:12" ht="59.45" customHeight="1">
       <c r="A18" s="10">
@@ -2411,22 +2411,18 @@
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="15"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="16"/>
     </row>
     <row r="19" spans="1:12" ht="59.45" customHeight="1">
       <c r="A19" s="4">
@@ -2435,40 +2431,36 @@
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" s="15"/>
+      <c r="L19" s="16"/>
     </row>
     <row r="20" spans="1:12" ht="59.45" customHeight="1">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="4"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="15"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -2516,13 +2508,552 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:L2"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="8.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="2" customWidth="1"/>
+    <col min="3" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="11.375" style="2" customWidth="1"/>
+    <col min="9" max="11" width="9" style="2"/>
+    <col min="12" max="12" width="51" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="34"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="32"/>
+      <c r="H3" s="35">
+        <v>43654</v>
+      </c>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="34"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+    </row>
+    <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="16"/>
+    </row>
+    <row r="6" spans="1:12" ht="40.9" customHeight="1">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="20"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="20"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+    </row>
+    <row r="8" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="20"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
+    </row>
+    <row r="9" spans="1:12" ht="51" customHeight="1">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="16"/>
+    </row>
+    <row r="10" spans="1:12" ht="51" customHeight="1">
+      <c r="A10" s="4">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
+    </row>
+    <row r="11" spans="1:12" ht="52.15" customHeight="1">
+      <c r="A11" s="4">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="20"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
+    </row>
+    <row r="12" spans="1:12" ht="49.9" customHeight="1">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="20"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
+    </row>
+    <row r="13" spans="1:12" ht="70.900000000000006" customHeight="1">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="20"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="16"/>
+    </row>
+    <row r="14" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A14" s="4">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="20"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="16"/>
+    </row>
+    <row r="15" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A15" s="10">
+        <v>11</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="20"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="16"/>
+    </row>
+    <row r="16" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A16" s="10">
+        <v>12</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="20"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="16"/>
+    </row>
+    <row r="17" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A17" s="10">
+        <v>13</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="14"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="16"/>
+    </row>
+    <row r="18" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A18" s="10">
+        <v>14</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="16"/>
+    </row>
+    <row r="19" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A19" s="4">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="14"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="16"/>
+    </row>
+    <row r="20" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A20" s="4">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="43">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="J18:L18"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -2545,13 +3076,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="25"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="A1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="7" t="s">
         <v>1</v>
       </c>
@@ -2563,48 +3094,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="30" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32" t="s">
+      <c r="G2" s="32"/>
+      <c r="H2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="33"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="34"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="30" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="34">
+      <c r="G3" s="32"/>
+      <c r="H3" s="35">
         <v>43189</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="33"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="34"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
@@ -2613,24 +3144,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1">
       <c r="A5" s="4">
@@ -2639,22 +3170,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="15"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:12" ht="40.9" customHeight="1">
       <c r="A6" s="4">
@@ -2663,22 +3194,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
       <c r="H6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="15"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="16"/>
     </row>
     <row r="7" spans="1:12" ht="59.45" customHeight="1">
       <c r="A7" s="4">
@@ -2687,22 +3218,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="15"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
     </row>
     <row r="8" spans="1:12" ht="59.45" customHeight="1">
       <c r="A8" s="4">
@@ -2711,22 +3242,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="15"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1">
       <c r="A9" s="4">
@@ -2735,22 +3266,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="15"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="16"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1">
       <c r="A10" s="4">
@@ -2759,22 +3290,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
       <c r="H10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="21"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
     </row>
     <row r="11" spans="1:12" ht="52.15" customHeight="1">
       <c r="A11" s="4">
@@ -2783,22 +3314,22 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="23"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1">
       <c r="A12" s="4">
@@ -2807,22 +3338,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="23"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
     </row>
     <row r="13" spans="1:12" ht="70.900000000000006" customHeight="1">
       <c r="A13" s="4">
@@ -2831,22 +3362,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="15"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="16"/>
     </row>
     <row r="14" spans="1:12" ht="59.45" customHeight="1">
       <c r="A14" s="4">
@@ -2855,22 +3386,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="15"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="16"/>
     </row>
     <row r="15" spans="1:12" ht="59.45" customHeight="1">
       <c r="A15" s="4">
@@ -2879,22 +3410,22 @@
       <c r="B15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
       <c r="H15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="15"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="16"/>
     </row>
     <row r="16" spans="1:12" ht="59.45" customHeight="1">
       <c r="A16" s="4">
@@ -2903,22 +3434,22 @@
       <c r="B16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
       <c r="H16" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J16" s="19"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="15"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="16"/>
     </row>
     <row r="17" spans="1:12" ht="59.45" customHeight="1">
       <c r="A17" s="4">
@@ -2927,22 +3458,22 @@
       <c r="B17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
       <c r="H17" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="15"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="16"/>
     </row>
     <row r="18" spans="1:12" ht="59.45" customHeight="1">
       <c r="A18" s="4">
@@ -2951,57 +3482,28 @@
       <c r="B18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
       <c r="H18" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="13" t="s">
+      <c r="J18" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="K18" s="14"/>
-      <c r="L18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="16"/>
     </row>
     <row r="19" spans="1:12" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="J11:L11"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="J17:L17"/>
     <mergeCell ref="C18:G18"/>
@@ -3012,6 +3514,35 @@
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="J16:L16"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:L2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3019,7 +3550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -3040,13 +3571,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="25"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="A1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3058,48 +3589,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="30" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32" t="s">
+      <c r="G2" s="32"/>
+      <c r="H2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="33"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="34"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="30" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="34">
+      <c r="G3" s="32"/>
+      <c r="H3" s="35">
         <v>43041</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="33"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="34"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
@@ -3108,24 +3639,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1">
       <c r="A5" s="4">
@@ -3134,24 +3665,24 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:12" ht="40.9" customHeight="1">
       <c r="A6" s="4">
@@ -3160,22 +3691,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
       <c r="H6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="15"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="16"/>
     </row>
     <row r="7" spans="1:12" ht="59.45" customHeight="1">
       <c r="A7" s="4">
@@ -3184,22 +3715,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="15"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
     </row>
     <row r="8" spans="1:12" ht="59.45" customHeight="1">
       <c r="A8" s="4">
@@ -3208,22 +3739,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="15"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="16"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1">
       <c r="A9" s="4">
@@ -3232,24 +3763,24 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="16"/>
     </row>
     <row r="10" spans="1:12" ht="59.45" customHeight="1">
       <c r="A10" s="4">
@@ -3258,22 +3789,22 @@
       <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="19"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="15"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="16"/>
     </row>
     <row r="11" spans="1:12" ht="51" customHeight="1">
       <c r="A11" s="4">
@@ -3282,24 +3813,24 @@
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
       <c r="H11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="16"/>
     </row>
     <row r="12" spans="1:12" ht="52.15" customHeight="1">
       <c r="A12" s="4">
@@ -3308,54 +3839,54 @@
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="23"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
     </row>
     <row r="13" spans="1:12" ht="49.9" customHeight="1">
       <c r="A13" s="4">
         <v>9</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="23"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="24"/>
     </row>
     <row r="14" spans="1:12" ht="70.900000000000006" customHeight="1">
       <c r="A14" s="4">
         <v>10</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="15"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="16"/>
     </row>
     <row r="15" spans="1:12" ht="59.45" customHeight="1"/>
     <row r="16" spans="1:12" ht="59.45" customHeight="1"/>
@@ -3365,28 +3896,6 @@
     <row r="20" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="C6:G6"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:G3"/>
@@ -3396,6 +3905,28 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:L2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="J12:L12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3403,6 +3934,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_dlc_DocId xmlns="72de59d5-254d-430a-8862-e2bf58cab753">6TCUH2D2FU37-209-14453</_dlc_DocId>
@@ -3414,66 +3954,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006ADE9B120D8C2544A30794E0CE6B3CF6" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6b7a23d33ee8a228344a1c6303b6d86b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72de59d5-254d-430a-8862-e2bf58cab753" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b905d02d852158c2afe173951ebabb5b" ns2:_="">
     <xsd:import namespace="72de59d5-254d-430a-8862-e2bf58cab753"/>
@@ -3618,7 +4099,65 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0AA1759-4A2E-4491-9C5A-7766559224EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90A17C51-7000-43B7-9373-E2C13FAD8445}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -3634,23 +4173,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0AA1759-4A2E-4491-9C5A-7766559224EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFF19337-409A-4CFF-80EA-D2526D7612D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6290CC7F-B9B0-4D98-A55D-A30816CE8732}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3666,4 +4189,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFF19337-409A-4CFF-80EA-D2526D7612D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/sw/project_files/Hendrix_M/Release/Hendrix_LiteV2_Notes/RD-Quick Test Report.xlsx
+++ b/sw/project_files/Hendrix_M/Release/Hendrix_LiteV2_Notes/RD-Quick Test Report.xlsx
@@ -12,22 +12,23 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7635" tabRatio="664"/>
   </bookViews>
   <sheets>
-    <sheet name="RDQT 6.0.4" sheetId="13" r:id="rId1"/>
-    <sheet name="RDQT 6.0.3" sheetId="12" r:id="rId2"/>
-    <sheet name="RDQT 6.0.2" sheetId="11" r:id="rId3"/>
-    <sheet name="RDQT 1.0.2" sheetId="10" r:id="rId4"/>
-    <sheet name="RDQT 1.0.1" sheetId="9" r:id="rId5"/>
-    <sheet name="RDQT 1.0.0" sheetId="8" r:id="rId6"/>
+    <sheet name="RDQT 6.0.5" sheetId="14" r:id="rId1"/>
+    <sheet name="RDQT 6.0.4" sheetId="13" r:id="rId2"/>
+    <sheet name="RDQT 6.0.3" sheetId="12" r:id="rId3"/>
+    <sheet name="RDQT 6.0.2" sheetId="11" r:id="rId4"/>
+    <sheet name="RDQT 1.0.2" sheetId="10" r:id="rId5"/>
+    <sheet name="RDQT 1.0.1" sheetId="9" r:id="rId6"/>
+    <sheet name="RDQT 1.0.0" sheetId="8" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="Light">[1]List!$A$2:$A$6</definedName>
     <definedName name="Priority">[1]List!$B$2:$B$4</definedName>
     <definedName name="Status">[1]List!$C$2:$C$4</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="72">
   <si>
     <t>Pass</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -316,6 +317,9 @@
   </si>
   <si>
     <t>Hendrix_M_Lite_V2</t>
+  </si>
+  <si>
+    <t>6.0.5</t>
   </si>
 </sst>
 </file>
@@ -478,7 +482,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -511,6 +515,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -960,7 +967,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -975,14 +982,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="26"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="13" t="s">
+      <c r="A1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -993,48 +1000,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="31" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="34"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="31" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="35">
-        <v>44396</v>
-      </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="34"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="36">
+        <v>44411</v>
+      </c>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="35"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
@@ -1043,24 +1050,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1">
       <c r="A5" s="4">
@@ -1069,22 +1076,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="16"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12" ht="40.9" customHeight="1">
       <c r="A6" s="4">
@@ -1093,22 +1100,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
       <c r="H6" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="16"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12" ht="59.45" customHeight="1">
       <c r="A7" s="4">
@@ -1117,22 +1124,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="16"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12" ht="59.45" customHeight="1">
       <c r="A8" s="4">
@@ -1141,22 +1148,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="16"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1">
       <c r="A9" s="4">
@@ -1165,22 +1172,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="16"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1">
       <c r="A10" s="4">
@@ -1189,22 +1196,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
       <c r="H10" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
     </row>
     <row r="11" spans="1:12" ht="52.15" customHeight="1">
       <c r="A11" s="4">
@@ -1213,24 +1220,24 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1">
       <c r="A12" s="4">
@@ -1239,22 +1246,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
     </row>
     <row r="13" spans="1:12" ht="70.900000000000006" customHeight="1">
       <c r="A13" s="4">
@@ -1263,22 +1270,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
       <c r="H13" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="20"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="16"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12" ht="59.45" customHeight="1">
       <c r="A14" s="4">
@@ -1287,22 +1294,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="16"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:12" ht="59.45" customHeight="1">
       <c r="A15" s="10">
@@ -1311,18 +1318,18 @@
       <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="4"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="16"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:12" ht="59.45" customHeight="1">
       <c r="A16" s="10">
@@ -1331,18 +1338,18 @@
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
       <c r="H16" s="4"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="16"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:12" ht="59.45" customHeight="1">
       <c r="A17" s="10">
@@ -1351,18 +1358,18 @@
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="16"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="17"/>
     </row>
     <row r="18" spans="1:12" ht="59.45" customHeight="1">
       <c r="A18" s="10">
@@ -1371,18 +1378,18 @@
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="4"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="16"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12" ht="59.45" customHeight="1">
       <c r="A19" s="4">
@@ -1391,36 +1398,36 @@
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="15"/>
-      <c r="L19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12" ht="59.45" customHeight="1">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
       <c r="H20" s="4"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="16"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -1481,7 +1488,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9:L9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1496,14 +1503,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="26"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="12" t="s">
+      <c r="A1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -1514,48 +1521,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="31" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="34"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="31" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="35">
-        <v>44392</v>
-      </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="34"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="36">
+        <v>44396</v>
+      </c>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="35"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
@@ -1564,24 +1571,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1">
       <c r="A5" s="4">
@@ -1590,22 +1597,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="16"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12" ht="40.9" customHeight="1">
       <c r="A6" s="4">
@@ -1614,22 +1621,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
       <c r="H6" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="16"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12" ht="59.45" customHeight="1">
       <c r="A7" s="4">
@@ -1638,22 +1645,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="16"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12" ht="59.45" customHeight="1">
       <c r="A8" s="4">
@@ -1662,22 +1669,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="16"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1">
       <c r="A9" s="4">
@@ -1686,22 +1693,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="16"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1">
       <c r="A10" s="4">
@@ -1710,22 +1717,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
       <c r="H10" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
     </row>
     <row r="11" spans="1:12" ht="52.15" customHeight="1">
       <c r="A11" s="4">
@@ -1734,24 +1741,24 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1">
       <c r="A12" s="4">
@@ -1760,22 +1767,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
     </row>
     <row r="13" spans="1:12" ht="70.900000000000006" customHeight="1">
       <c r="A13" s="4">
@@ -1784,22 +1791,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
       <c r="H13" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="20"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="16"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12" ht="59.45" customHeight="1">
       <c r="A14" s="4">
@@ -1808,22 +1815,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="16"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:12" ht="59.45" customHeight="1">
       <c r="A15" s="10">
@@ -1832,18 +1839,18 @@
       <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="4"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="16"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:12" ht="59.45" customHeight="1">
       <c r="A16" s="10">
@@ -1852,18 +1859,18 @@
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
       <c r="H16" s="4"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="16"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:12" ht="59.45" customHeight="1">
       <c r="A17" s="10">
@@ -1872,18 +1879,18 @@
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="16"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="17"/>
     </row>
     <row r="18" spans="1:12" ht="59.45" customHeight="1">
       <c r="A18" s="10">
@@ -1892,18 +1899,18 @@
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="4"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="16"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12" ht="59.45" customHeight="1">
       <c r="A19" s="4">
@@ -1912,36 +1919,36 @@
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="15"/>
-      <c r="L19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12" ht="59.45" customHeight="1">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
       <c r="H20" s="4"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="16"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -2002,7 +2009,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E3"/>
+      <selection activeCell="J9" sqref="J9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2017,14 +2024,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="26"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="11" t="s">
+      <c r="A1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -2035,48 +2042,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="31" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="34"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="31" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="35">
-        <v>44361</v>
-      </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="34"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="36">
+        <v>44392</v>
+      </c>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="35"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
@@ -2085,24 +2092,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1">
       <c r="A5" s="4">
@@ -2111,22 +2118,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="16"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12" ht="40.9" customHeight="1">
       <c r="A6" s="4">
@@ -2135,22 +2142,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
       <c r="H6" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="16"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12" ht="59.45" customHeight="1">
       <c r="A7" s="4">
@@ -2159,22 +2166,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="16"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12" ht="59.45" customHeight="1">
       <c r="A8" s="4">
@@ -2183,22 +2190,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="16"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1">
       <c r="A9" s="4">
@@ -2207,22 +2214,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="16"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1">
       <c r="A10" s="4">
@@ -2231,22 +2238,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
       <c r="H10" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
     </row>
     <row r="11" spans="1:12" ht="52.15" customHeight="1">
       <c r="A11" s="4">
@@ -2255,22 +2262,24 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
+        <v>67</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1">
       <c r="A12" s="4">
@@ -2279,22 +2288,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
     </row>
     <row r="13" spans="1:12" ht="70.900000000000006" customHeight="1">
       <c r="A13" s="4">
@@ -2303,22 +2312,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
       <c r="H13" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="20"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="16"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12" ht="59.45" customHeight="1">
       <c r="A14" s="4">
@@ -2327,22 +2336,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="16"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:12" ht="59.45" customHeight="1">
       <c r="A15" s="10">
@@ -2351,18 +2360,18 @@
       <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="4"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="16"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:12" ht="59.45" customHeight="1">
       <c r="A16" s="10">
@@ -2371,18 +2380,18 @@
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
       <c r="H16" s="4"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="16"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:12" ht="59.45" customHeight="1">
       <c r="A17" s="10">
@@ -2391,18 +2400,18 @@
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="16"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="17"/>
     </row>
     <row r="18" spans="1:12" ht="59.45" customHeight="1">
       <c r="A18" s="10">
@@ -2411,18 +2420,18 @@
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="4"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="16"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12" ht="59.45" customHeight="1">
       <c r="A19" s="4">
@@ -2431,36 +2440,36 @@
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="15"/>
-      <c r="L19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12" ht="59.45" customHeight="1">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
       <c r="H20" s="4"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="16"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -2521,7 +2530,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G7"/>
+      <selection activeCell="C3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2536,14 +2545,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="26"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="8" t="s">
+      <c r="A1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -2554,48 +2563,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="31" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="34"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="31" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="35">
-        <v>43654</v>
-      </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="34"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="36">
+        <v>44361</v>
+      </c>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="35"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
@@ -2604,24 +2613,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1">
       <c r="A5" s="4">
@@ -2630,22 +2639,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="16"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12" ht="40.9" customHeight="1">
       <c r="A6" s="4">
@@ -2654,22 +2663,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
       <c r="H6" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="16"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12" ht="59.45" customHeight="1">
       <c r="A7" s="4">
@@ -2678,22 +2687,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="16"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12" ht="59.45" customHeight="1">
       <c r="A8" s="4">
@@ -2702,22 +2711,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="16"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1">
       <c r="A9" s="4">
@@ -2726,22 +2735,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="16"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1">
       <c r="A10" s="4">
@@ -2750,22 +2759,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
       <c r="H10" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
     </row>
     <row r="11" spans="1:12" ht="52.15" customHeight="1">
       <c r="A11" s="4">
@@ -2774,22 +2783,22 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1">
       <c r="A12" s="4">
@@ -2798,22 +2807,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
     </row>
     <row r="13" spans="1:12" ht="70.900000000000006" customHeight="1">
       <c r="A13" s="4">
@@ -2822,22 +2831,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
       <c r="H13" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="20"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="16"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12" ht="59.45" customHeight="1">
       <c r="A14" s="4">
@@ -2846,22 +2855,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="16"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:12" ht="59.45" customHeight="1">
       <c r="A15" s="10">
@@ -2870,22 +2879,18 @@
       <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="20"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="16"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:12" ht="59.45" customHeight="1">
       <c r="A16" s="10">
@@ -2894,22 +2899,18 @@
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="20"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="16"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:12" ht="59.45" customHeight="1">
       <c r="A17" s="10">
@@ -2918,22 +2919,18 @@
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="16"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="17"/>
     </row>
     <row r="18" spans="1:12" ht="59.45" customHeight="1">
       <c r="A18" s="10">
@@ -2942,22 +2939,18 @@
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" s="14"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="16"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" spans="1:12" ht="59.45" customHeight="1">
       <c r="A19" s="4">
@@ -2966,40 +2959,36 @@
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" s="16"/>
+      <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12" ht="59.45" customHeight="1">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="4"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="16"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -3047,7 +3036,6 @@
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="J18:L18"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3058,10 +3046,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -3076,14 +3064,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="26"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="7" t="s">
+      <c r="A1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -3094,48 +3082,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="31" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="34"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="31" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="35">
-        <v>43189</v>
-      </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="34"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="36">
+        <v>43654</v>
+      </c>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="35"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
@@ -3144,24 +3132,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1">
       <c r="A5" s="4">
@@ -3170,22 +3158,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
+      <c r="C5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="16"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12" ht="40.9" customHeight="1">
       <c r="A6" s="4">
@@ -3194,22 +3182,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
       <c r="H6" s="4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="16"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12" ht="59.45" customHeight="1">
       <c r="A7" s="4">
@@ -3218,22 +3206,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="16"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12" ht="59.45" customHeight="1">
       <c r="A8" s="4">
@@ -3242,22 +3230,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="16"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1">
       <c r="A9" s="4">
@@ -3266,22 +3254,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="16"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1">
       <c r="A10" s="4">
@@ -3290,22 +3278,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
       <c r="H10" s="4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
     </row>
     <row r="11" spans="1:12" ht="52.15" customHeight="1">
       <c r="A11" s="4">
@@ -3314,22 +3302,22 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1">
       <c r="A12" s="4">
@@ -3338,22 +3326,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
     </row>
     <row r="13" spans="1:12" ht="70.900000000000006" customHeight="1">
       <c r="A13" s="4">
@@ -3362,22 +3350,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
       <c r="H13" s="4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="20"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="16"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12" ht="59.45" customHeight="1">
       <c r="A14" s="4">
@@ -3386,142 +3374,185 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="16"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:12" ht="59.45" customHeight="1">
-      <c r="A15" s="4">
+      <c r="A15" s="10">
         <v>11</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="20"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="16"/>
+        <v>60</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="21"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="17"/>
     </row>
     <row r="16" spans="1:12" ht="59.45" customHeight="1">
-      <c r="A16" s="4">
+      <c r="A16" s="10">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
       <c r="H16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="20"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="16"/>
+        <v>60</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="21"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:12" ht="59.45" customHeight="1">
-      <c r="A17" s="4">
+      <c r="A17" s="10">
         <v>13</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="16"/>
+        <v>60</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="15"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="17"/>
     </row>
     <row r="18" spans="1:12" ht="59.45" customHeight="1">
-      <c r="A18" s="4">
+      <c r="A18" s="10">
         <v>14</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
+      <c r="C18" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18" s="15"/>
-      <c r="L18" s="16"/>
-    </row>
-    <row r="19" spans="1:12" ht="12.75" customHeight="1"/>
+        <v>60</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="15"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A19" s="4">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="15"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A20" s="4">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="43">
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="J16:L16"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="J17:L17"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="J18:L18"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="J13:L13"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="J15:L15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="J13:L13"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="J12:L12"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="C8:G8"/>
@@ -3555,6 +3586,503 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="8.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="2" customWidth="1"/>
+    <col min="3" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="11.375" style="2" customWidth="1"/>
+    <col min="9" max="11" width="9" style="2"/>
+    <col min="12" max="12" width="51" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="33"/>
+      <c r="H2" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="35"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="33"/>
+      <c r="H3" s="36">
+        <v>43189</v>
+      </c>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="35"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+    </row>
+    <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
+    </row>
+    <row r="6" spans="1:12" ht="40.9" customHeight="1">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="21"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="21"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" spans="1:12" ht="51" customHeight="1">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="1:12" ht="51" customHeight="1">
+      <c r="A10" s="4">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
+    </row>
+    <row r="11" spans="1:12" ht="52.15" customHeight="1">
+      <c r="A11" s="4">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="21"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="25"/>
+    </row>
+    <row r="12" spans="1:12" ht="49.9" customHeight="1">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="21"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
+    </row>
+    <row r="13" spans="1:12" ht="70.900000000000006" customHeight="1">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="17"/>
+    </row>
+    <row r="14" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A14" s="4">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="21"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="17"/>
+    </row>
+    <row r="15" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A15" s="4">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="21"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="17"/>
+    </row>
+    <row r="16" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A16" s="4">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="21"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="17"/>
+    </row>
+    <row r="17" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A17" s="4">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="21"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="17"/>
+    </row>
+    <row r="18" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A18" s="4">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="16"/>
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" spans="1:12" ht="12.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="39">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="J16:L16"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3571,13 +4099,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="26"/>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="A1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3589,48 +4117,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="31" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="34"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="35"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="31" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="35">
+      <c r="G3" s="33"/>
+      <c r="H3" s="36">
         <v>43041</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="34"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="35"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
@@ -3639,24 +4167,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1">
       <c r="A5" s="4">
@@ -3665,24 +4193,24 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="17"/>
     </row>
     <row r="6" spans="1:12" ht="40.9" customHeight="1">
       <c r="A6" s="4">
@@ -3691,22 +4219,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
       <c r="H6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="16"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
     </row>
     <row r="7" spans="1:12" ht="59.45" customHeight="1">
       <c r="A7" s="4">
@@ -3715,22 +4243,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="16"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12" ht="59.45" customHeight="1">
       <c r="A8" s="4">
@@ -3739,22 +4267,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="16"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1">
       <c r="A9" s="4">
@@ -3763,24 +4291,24 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:12" ht="59.45" customHeight="1">
       <c r="A10" s="4">
@@ -3789,22 +4317,22 @@
       <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
       <c r="H10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="16"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12" ht="51" customHeight="1">
       <c r="A11" s="4">
@@ -3813,24 +4341,24 @@
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
       <c r="H11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:12" ht="52.15" customHeight="1">
       <c r="A12" s="4">
@@ -3839,54 +4367,54 @@
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
     </row>
     <row r="13" spans="1:12" ht="49.9" customHeight="1">
       <c r="A13" s="4">
         <v>9</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
     </row>
     <row r="14" spans="1:12" ht="70.900000000000006" customHeight="1">
       <c r="A14" s="4">
         <v>10</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="16"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:12" ht="59.45" customHeight="1"/>
     <row r="16" spans="1:12" ht="59.45" customHeight="1"/>
@@ -3896,6 +4424,28 @@
     <row r="20" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="C6:G6"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:G3"/>
@@ -3905,28 +4455,6 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:L2"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="J12:L12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3943,15 +4471,53 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="72de59d5-254d-430a-8862-e2bf58cab753">6TCUH2D2FU37-209-14453</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="72de59d5-254d-430a-8862-e2bf58cab753">
-      <Url>http://intranet.tymphany.com/Departments/sw/_layouts/15/DocIdRedir.aspx?ID=6TCUH2D2FU37-209-14453</Url>
-      <Description>6TCUH2D2FU37-209-14453</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4100,53 +4666,15 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="72de59d5-254d-430a-8862-e2bf58cab753">6TCUH2D2FU37-209-14453</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="72de59d5-254d-430a-8862-e2bf58cab753">
+      <Url>http://intranet.tymphany.com/Departments/sw/_layouts/15/DocIdRedir.aspx?ID=6TCUH2D2FU37-209-14453</Url>
+      <Description>6TCUH2D2FU37-209-14453</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4158,17 +4686,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90A17C51-7000-43B7-9373-E2C13FAD8445}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFF19337-409A-4CFF-80EA-D2526D7612D6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="72de59d5-254d-430a-8862-e2bf58cab753"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4192,9 +4712,17 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFF19337-409A-4CFF-80EA-D2526D7612D6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90A17C51-7000-43B7-9373-E2C13FAD8445}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="72de59d5-254d-430a-8862-e2bf58cab753"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/sw/project_files/Hendrix_M/Release/Hendrix_LiteV2_Notes/RD-Quick Test Report.xlsx
+++ b/sw/project_files/Hendrix_M/Release/Hendrix_LiteV2_Notes/RD-Quick Test Report.xlsx
@@ -12,16 +12,17 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7635" tabRatio="664"/>
   </bookViews>
   <sheets>
-    <sheet name="RDQT 6.0.5" sheetId="14" r:id="rId1"/>
-    <sheet name="RDQT 6.0.4" sheetId="13" r:id="rId2"/>
-    <sheet name="RDQT 6.0.3" sheetId="12" r:id="rId3"/>
-    <sheet name="RDQT 6.0.2" sheetId="11" r:id="rId4"/>
-    <sheet name="RDQT 1.0.2" sheetId="10" r:id="rId5"/>
-    <sheet name="RDQT 1.0.1" sheetId="9" r:id="rId6"/>
-    <sheet name="RDQT 1.0.0" sheetId="8" r:id="rId7"/>
+    <sheet name="RDQT 6.0.6" sheetId="15" r:id="rId1"/>
+    <sheet name="RDQT 6.0.5" sheetId="14" r:id="rId2"/>
+    <sheet name="RDQT 6.0.4" sheetId="13" r:id="rId3"/>
+    <sheet name="RDQT 6.0.3" sheetId="12" r:id="rId4"/>
+    <sheet name="RDQT 6.0.2" sheetId="11" r:id="rId5"/>
+    <sheet name="RDQT 1.0.2" sheetId="10" r:id="rId6"/>
+    <sheet name="RDQT 1.0.1" sheetId="9" r:id="rId7"/>
+    <sheet name="RDQT 1.0.0" sheetId="8" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="Light">[1]List!$A$2:$A$6</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="72">
   <si>
     <t>Pass</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -482,7 +483,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -515,6 +516,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -966,8 +970,8 @@
   </sheetPr>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -982,14 +986,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="14" t="s">
+      <c r="A1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="15" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -1000,48 +1004,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="32" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="35"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="32" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="36">
+      <c r="G3" s="34"/>
+      <c r="H3" s="37">
         <v>44411</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="35"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="36"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
@@ -1050,24 +1054,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1">
       <c r="A5" s="4">
@@ -1076,22 +1080,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:12" ht="40.9" customHeight="1">
       <c r="A6" s="4">
@@ -1100,22 +1104,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:12" ht="59.45" customHeight="1">
       <c r="A7" s="4">
@@ -1124,22 +1128,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="17"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:12" ht="59.45" customHeight="1">
       <c r="A8" s="4">
@@ -1148,22 +1152,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1">
       <c r="A9" s="4">
@@ -1172,22 +1176,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1">
       <c r="A10" s="4">
@@ -1196,22 +1200,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="23"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
     </row>
     <row r="11" spans="1:12" ht="52.15" customHeight="1">
       <c r="A11" s="4">
@@ -1220,24 +1224,24 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1">
       <c r="A12" s="4">
@@ -1246,22 +1250,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
     </row>
     <row r="13" spans="1:12" ht="70.900000000000006" customHeight="1">
       <c r="A13" s="4">
@@ -1270,22 +1274,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="17"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:12" ht="59.45" customHeight="1">
       <c r="A14" s="4">
@@ -1294,22 +1298,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="17"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="18"/>
     </row>
     <row r="15" spans="1:12" ht="59.45" customHeight="1">
       <c r="A15" s="10">
@@ -1318,18 +1322,18 @@
       <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
       <c r="H15" s="4"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="17"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" spans="1:12" ht="59.45" customHeight="1">
       <c r="A16" s="10">
@@ -1338,18 +1342,18 @@
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
       <c r="H16" s="4"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="17"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="18"/>
     </row>
     <row r="17" spans="1:12" ht="59.45" customHeight="1">
       <c r="A17" s="10">
@@ -1358,18 +1362,18 @@
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="17"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="18"/>
     </row>
     <row r="18" spans="1:12" ht="59.45" customHeight="1">
       <c r="A18" s="10">
@@ -1378,18 +1382,18 @@
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21"/>
       <c r="H18" s="4"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="17"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="18"/>
     </row>
     <row r="19" spans="1:12" ht="59.45" customHeight="1">
       <c r="A19" s="4">
@@ -1398,36 +1402,36 @@
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="15" t="s">
+      <c r="J19" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="16"/>
-      <c r="L19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="18"/>
     </row>
     <row r="20" spans="1:12" ht="59.45" customHeight="1">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
       <c r="H20" s="4"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="17"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -1488,7 +1492,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1503,14 +1507,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="13" t="s">
+      <c r="A1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -1521,48 +1525,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="32" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="35"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="32" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="36">
-        <v>44396</v>
-      </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="35"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="37">
+        <v>44411</v>
+      </c>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="36"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
@@ -1571,24 +1575,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1">
       <c r="A5" s="4">
@@ -1597,22 +1601,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:12" ht="40.9" customHeight="1">
       <c r="A6" s="4">
@@ -1621,22 +1625,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:12" ht="59.45" customHeight="1">
       <c r="A7" s="4">
@@ -1645,22 +1649,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="17"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:12" ht="59.45" customHeight="1">
       <c r="A8" s="4">
@@ -1669,22 +1673,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1">
       <c r="A9" s="4">
@@ -1693,22 +1697,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1">
       <c r="A10" s="4">
@@ -1717,22 +1721,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="23"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
     </row>
     <row r="11" spans="1:12" ht="52.15" customHeight="1">
       <c r="A11" s="4">
@@ -1741,24 +1745,24 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1">
       <c r="A12" s="4">
@@ -1767,22 +1771,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
     </row>
     <row r="13" spans="1:12" ht="70.900000000000006" customHeight="1">
       <c r="A13" s="4">
@@ -1791,22 +1795,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="17"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:12" ht="59.45" customHeight="1">
       <c r="A14" s="4">
@@ -1815,22 +1819,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="17"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="18"/>
     </row>
     <row r="15" spans="1:12" ht="59.45" customHeight="1">
       <c r="A15" s="10">
@@ -1839,18 +1843,18 @@
       <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
       <c r="H15" s="4"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="17"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" spans="1:12" ht="59.45" customHeight="1">
       <c r="A16" s="10">
@@ -1859,18 +1863,18 @@
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
       <c r="H16" s="4"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="17"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="18"/>
     </row>
     <row r="17" spans="1:12" ht="59.45" customHeight="1">
       <c r="A17" s="10">
@@ -1879,18 +1883,18 @@
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="17"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="18"/>
     </row>
     <row r="18" spans="1:12" ht="59.45" customHeight="1">
       <c r="A18" s="10">
@@ -1899,18 +1903,18 @@
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21"/>
       <c r="H18" s="4"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="17"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="18"/>
     </row>
     <row r="19" spans="1:12" ht="59.45" customHeight="1">
       <c r="A19" s="4">
@@ -1919,36 +1923,36 @@
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="15" t="s">
+      <c r="J19" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="16"/>
-      <c r="L19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="18"/>
     </row>
     <row r="20" spans="1:12" ht="59.45" customHeight="1">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
       <c r="H20" s="4"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="17"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -2009,7 +2013,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9:L9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2024,14 +2028,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="12" t="s">
+      <c r="A1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -2042,48 +2046,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="32" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="35"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="32" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="36">
-        <v>44392</v>
-      </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="35"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="37">
+        <v>44396</v>
+      </c>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="36"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
@@ -2092,24 +2096,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1">
       <c r="A5" s="4">
@@ -2118,22 +2122,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:12" ht="40.9" customHeight="1">
       <c r="A6" s="4">
@@ -2142,22 +2146,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:12" ht="59.45" customHeight="1">
       <c r="A7" s="4">
@@ -2166,22 +2170,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="17"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:12" ht="59.45" customHeight="1">
       <c r="A8" s="4">
@@ -2190,22 +2194,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1">
       <c r="A9" s="4">
@@ -2214,22 +2218,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1">
       <c r="A10" s="4">
@@ -2238,22 +2242,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="23"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
     </row>
     <row r="11" spans="1:12" ht="52.15" customHeight="1">
       <c r="A11" s="4">
@@ -2262,24 +2266,24 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1">
       <c r="A12" s="4">
@@ -2288,22 +2292,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
     </row>
     <row r="13" spans="1:12" ht="70.900000000000006" customHeight="1">
       <c r="A13" s="4">
@@ -2312,22 +2316,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="17"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:12" ht="59.45" customHeight="1">
       <c r="A14" s="4">
@@ -2336,22 +2340,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="17"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="18"/>
     </row>
     <row r="15" spans="1:12" ht="59.45" customHeight="1">
       <c r="A15" s="10">
@@ -2360,18 +2364,18 @@
       <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
       <c r="H15" s="4"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="17"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" spans="1:12" ht="59.45" customHeight="1">
       <c r="A16" s="10">
@@ -2380,18 +2384,18 @@
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
       <c r="H16" s="4"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="17"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="18"/>
     </row>
     <row r="17" spans="1:12" ht="59.45" customHeight="1">
       <c r="A17" s="10">
@@ -2400,18 +2404,18 @@
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="17"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="18"/>
     </row>
     <row r="18" spans="1:12" ht="59.45" customHeight="1">
       <c r="A18" s="10">
@@ -2420,18 +2424,18 @@
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21"/>
       <c r="H18" s="4"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="17"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="18"/>
     </row>
     <row r="19" spans="1:12" ht="59.45" customHeight="1">
       <c r="A19" s="4">
@@ -2440,36 +2444,36 @@
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="15" t="s">
+      <c r="J19" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="16"/>
-      <c r="L19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="18"/>
     </row>
     <row r="20" spans="1:12" ht="59.45" customHeight="1">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
       <c r="H20" s="4"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="17"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -2530,7 +2534,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E3"/>
+      <selection activeCell="J9" sqref="J9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2545,14 +2549,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="11" t="s">
+      <c r="A1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -2563,48 +2567,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="32" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="35"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="32" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="36">
-        <v>44361</v>
-      </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="35"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="37">
+        <v>44392</v>
+      </c>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="36"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
@@ -2613,24 +2617,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1">
       <c r="A5" s="4">
@@ -2639,22 +2643,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:12" ht="40.9" customHeight="1">
       <c r="A6" s="4">
@@ -2663,22 +2667,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:12" ht="59.45" customHeight="1">
       <c r="A7" s="4">
@@ -2687,22 +2691,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="17"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:12" ht="59.45" customHeight="1">
       <c r="A8" s="4">
@@ -2711,22 +2715,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1">
       <c r="A9" s="4">
@@ -2735,22 +2739,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1">
       <c r="A10" s="4">
@@ -2759,22 +2763,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="23"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
     </row>
     <row r="11" spans="1:12" ht="52.15" customHeight="1">
       <c r="A11" s="4">
@@ -2783,22 +2787,24 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
+        <v>67</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1">
       <c r="A12" s="4">
@@ -2807,22 +2813,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
     </row>
     <row r="13" spans="1:12" ht="70.900000000000006" customHeight="1">
       <c r="A13" s="4">
@@ -2831,22 +2837,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="17"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:12" ht="59.45" customHeight="1">
       <c r="A14" s="4">
@@ -2855,22 +2861,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="17"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="18"/>
     </row>
     <row r="15" spans="1:12" ht="59.45" customHeight="1">
       <c r="A15" s="10">
@@ -2879,18 +2885,18 @@
       <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
       <c r="H15" s="4"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="17"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" spans="1:12" ht="59.45" customHeight="1">
       <c r="A16" s="10">
@@ -2899,18 +2905,18 @@
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
       <c r="H16" s="4"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="17"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="18"/>
     </row>
     <row r="17" spans="1:12" ht="59.45" customHeight="1">
       <c r="A17" s="10">
@@ -2919,18 +2925,18 @@
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="17"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="18"/>
     </row>
     <row r="18" spans="1:12" ht="59.45" customHeight="1">
       <c r="A18" s="10">
@@ -2939,18 +2945,18 @@
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21"/>
       <c r="H18" s="4"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="17"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="18"/>
     </row>
     <row r="19" spans="1:12" ht="59.45" customHeight="1">
       <c r="A19" s="4">
@@ -2959,36 +2965,36 @@
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="15" t="s">
+      <c r="J19" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="16"/>
-      <c r="L19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="18"/>
     </row>
     <row r="20" spans="1:12" ht="59.45" customHeight="1">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
       <c r="H20" s="4"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="17"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -3049,7 +3055,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G7"/>
+      <selection activeCell="C3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -3064,14 +3070,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="8" t="s">
+      <c r="A1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -3082,48 +3088,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="32" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="35"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="32" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="36">
-        <v>43654</v>
-      </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="35"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="37">
+        <v>44361</v>
+      </c>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="36"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
@@ -3132,24 +3138,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1">
       <c r="A5" s="4">
@@ -3158,22 +3164,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:12" ht="40.9" customHeight="1">
       <c r="A6" s="4">
@@ -3182,22 +3188,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:12" ht="59.45" customHeight="1">
       <c r="A7" s="4">
@@ -3206,22 +3212,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="17"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:12" ht="59.45" customHeight="1">
       <c r="A8" s="4">
@@ -3230,22 +3236,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1">
       <c r="A9" s="4">
@@ -3254,22 +3260,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1">
       <c r="A10" s="4">
@@ -3278,22 +3284,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="23"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
     </row>
     <row r="11" spans="1:12" ht="52.15" customHeight="1">
       <c r="A11" s="4">
@@ -3302,22 +3308,22 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1">
       <c r="A12" s="4">
@@ -3326,22 +3332,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
     </row>
     <row r="13" spans="1:12" ht="70.900000000000006" customHeight="1">
       <c r="A13" s="4">
@@ -3350,22 +3356,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="17"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:12" ht="59.45" customHeight="1">
       <c r="A14" s="4">
@@ -3374,22 +3380,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="17"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="18"/>
     </row>
     <row r="15" spans="1:12" ht="59.45" customHeight="1">
       <c r="A15" s="10">
@@ -3398,22 +3404,18 @@
       <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="17"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" spans="1:12" ht="59.45" customHeight="1">
       <c r="A16" s="10">
@@ -3422,22 +3424,18 @@
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="17"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="18"/>
     </row>
     <row r="17" spans="1:12" ht="59.45" customHeight="1">
       <c r="A17" s="10">
@@ -3446,22 +3444,18 @@
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="17"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="18"/>
     </row>
     <row r="18" spans="1:12" ht="59.45" customHeight="1">
       <c r="A18" s="10">
@@ -3470,22 +3464,18 @@
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="17"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="18"/>
     </row>
     <row r="19" spans="1:12" ht="59.45" customHeight="1">
       <c r="A19" s="4">
@@ -3494,40 +3484,36 @@
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" s="17"/>
+      <c r="L19" s="18"/>
     </row>
     <row r="20" spans="1:12" ht="59.45" customHeight="1">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="4"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="17"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -3575,13 +3561,552 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:L2"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="8.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="2" customWidth="1"/>
+    <col min="3" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="11.375" style="2" customWidth="1"/>
+    <col min="9" max="11" width="9" style="2"/>
+    <col min="12" max="12" width="51" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="34"/>
+      <c r="H2" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="36"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="34"/>
+      <c r="H3" s="37">
+        <v>43654</v>
+      </c>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="36"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+    </row>
+    <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="16"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" spans="1:12" ht="40.9" customHeight="1">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="22"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="18"/>
+    </row>
+    <row r="7" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="22"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="22"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="1:12" ht="51" customHeight="1">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="1:12" ht="51" customHeight="1">
+      <c r="A10" s="4">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="16"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
+    </row>
+    <row r="11" spans="1:12" ht="52.15" customHeight="1">
+      <c r="A11" s="4">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="22"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
+    </row>
+    <row r="12" spans="1:12" ht="49.9" customHeight="1">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="22"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
+    </row>
+    <row r="13" spans="1:12" ht="70.900000000000006" customHeight="1">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="22"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A14" s="4">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="22"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="18"/>
+    </row>
+    <row r="15" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A15" s="10">
+        <v>11</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="22"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="18"/>
+    </row>
+    <row r="16" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A16" s="10">
+        <v>12</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="22"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="18"/>
+    </row>
+    <row r="17" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A17" s="10">
+        <v>13</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="16"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="18"/>
+    </row>
+    <row r="18" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A18" s="10">
+        <v>14</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="16"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="18"/>
+    </row>
+    <row r="19" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A19" s="4">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="16"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="18"/>
+    </row>
+    <row r="20" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A20" s="4">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="43">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="J18:L18"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -3604,13 +4129,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="A1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
       <c r="H1" s="7" t="s">
         <v>1</v>
       </c>
@@ -3622,48 +4147,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="32" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="34" t="s">
+      <c r="G2" s="34"/>
+      <c r="H2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="35"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="32" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="36">
+      <c r="G3" s="34"/>
+      <c r="H3" s="37">
         <v>43189</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="35"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="36"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
@@ -3672,24 +4197,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1">
       <c r="A5" s="4">
@@ -3698,22 +4223,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:12" ht="40.9" customHeight="1">
       <c r="A6" s="4">
@@ -3722,22 +4247,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:12" ht="59.45" customHeight="1">
       <c r="A7" s="4">
@@ -3746,22 +4271,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="17"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:12" ht="59.45" customHeight="1">
       <c r="A8" s="4">
@@ -3770,22 +4295,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1">
       <c r="A9" s="4">
@@ -3794,22 +4319,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1">
       <c r="A10" s="4">
@@ -3818,22 +4343,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="23"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
     </row>
     <row r="11" spans="1:12" ht="52.15" customHeight="1">
       <c r="A11" s="4">
@@ -3842,22 +4367,22 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1">
       <c r="A12" s="4">
@@ -3866,22 +4391,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
     </row>
     <row r="13" spans="1:12" ht="70.900000000000006" customHeight="1">
       <c r="A13" s="4">
@@ -3890,22 +4415,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="17"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:12" ht="59.45" customHeight="1">
       <c r="A14" s="4">
@@ -3914,22 +4439,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="17"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="18"/>
     </row>
     <row r="15" spans="1:12" ht="59.45" customHeight="1">
       <c r="A15" s="4">
@@ -3938,22 +4463,22 @@
       <c r="B15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
       <c r="H15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="17"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" spans="1:12" ht="59.45" customHeight="1">
       <c r="A16" s="4">
@@ -3962,22 +4487,22 @@
       <c r="B16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
       <c r="H16" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="17"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="18"/>
     </row>
     <row r="17" spans="1:12" ht="59.45" customHeight="1">
       <c r="A17" s="4">
@@ -3986,22 +4511,22 @@
       <c r="B17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
       <c r="H17" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="17"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="18"/>
     </row>
     <row r="18" spans="1:12" ht="59.45" customHeight="1">
       <c r="A18" s="4">
@@ -4010,57 +4535,28 @@
       <c r="B18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
       <c r="H18" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="J18" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="K18" s="16"/>
-      <c r="L18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="18"/>
     </row>
     <row r="19" spans="1:12" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="J11:L11"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="J17:L17"/>
     <mergeCell ref="C18:G18"/>
@@ -4071,6 +4567,35 @@
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="J16:L16"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:L2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4078,7 +4603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -4099,13 +4624,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="A1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4117,48 +4642,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="32" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="34" t="s">
+      <c r="G2" s="34"/>
+      <c r="H2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="35"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="32" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="36">
+      <c r="G3" s="34"/>
+      <c r="H3" s="37">
         <v>43041</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="35"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="36"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
@@ -4167,24 +4692,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1">
       <c r="A5" s="4">
@@ -4193,24 +4718,24 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:12" ht="40.9" customHeight="1">
       <c r="A6" s="4">
@@ -4219,22 +4744,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:12" ht="59.45" customHeight="1">
       <c r="A7" s="4">
@@ -4243,22 +4768,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="17"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:12" ht="59.45" customHeight="1">
       <c r="A8" s="4">
@@ -4267,22 +4792,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="17"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1">
       <c r="A9" s="4">
@@ -4291,24 +4816,24 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12" ht="59.45" customHeight="1">
       <c r="A10" s="4">
@@ -4317,22 +4842,22 @@
       <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="17"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:12" ht="51" customHeight="1">
       <c r="A11" s="4">
@@ -4341,24 +4866,24 @@
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:12" ht="52.15" customHeight="1">
       <c r="A12" s="4">
@@ -4367,54 +4892,54 @@
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
     </row>
     <row r="13" spans="1:12" ht="49.9" customHeight="1">
       <c r="A13" s="4">
         <v>9</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="25"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
     </row>
     <row r="14" spans="1:12" ht="70.900000000000006" customHeight="1">
       <c r="A14" s="4">
         <v>10</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="17"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="18"/>
     </row>
     <row r="15" spans="1:12" ht="59.45" customHeight="1"/>
     <row r="16" spans="1:12" ht="59.45" customHeight="1"/>
@@ -4424,28 +4949,6 @@
     <row r="20" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="C6:G6"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:G3"/>
@@ -4455,6 +4958,28 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:L2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="J12:L12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4462,65 +4987,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006ADE9B120D8C2544A30794E0CE6B3CF6" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6b7a23d33ee8a228344a1c6303b6d86b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72de59d5-254d-430a-8862-e2bf58cab753" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b905d02d852158c2afe173951ebabb5b" ns2:_="">
     <xsd:import namespace="72de59d5-254d-430a-8862-e2bf58cab753"/>
@@ -4665,6 +5131,65 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4678,9 +5203,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0AA1759-4A2E-4491-9C5A-7766559224EF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6290CC7F-B9B0-4D98-A55D-A30816CE8732}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="72de59d5-254d-430a-8862-e2bf58cab753"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4694,19 +5229,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6290CC7F-B9B0-4D98-A55D-A30816CE8732}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0AA1759-4A2E-4491-9C5A-7766559224EF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="72de59d5-254d-430a-8862-e2bf58cab753"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/sw/project_files/Hendrix_M/Release/Hendrix_LiteV2_Notes/RD-Quick Test Report.xlsx
+++ b/sw/project_files/Hendrix_M/Release/Hendrix_LiteV2_Notes/RD-Quick Test Report.xlsx
@@ -12,17 +12,18 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7635" tabRatio="664"/>
   </bookViews>
   <sheets>
-    <sheet name="RDQT 6.0.6" sheetId="15" r:id="rId1"/>
-    <sheet name="RDQT 6.0.5" sheetId="14" r:id="rId2"/>
-    <sheet name="RDQT 6.0.4" sheetId="13" r:id="rId3"/>
-    <sheet name="RDQT 6.0.3" sheetId="12" r:id="rId4"/>
-    <sheet name="RDQT 6.0.2" sheetId="11" r:id="rId5"/>
-    <sheet name="RDQT 1.0.2" sheetId="10" r:id="rId6"/>
-    <sheet name="RDQT 1.0.1" sheetId="9" r:id="rId7"/>
-    <sheet name="RDQT 1.0.0" sheetId="8" r:id="rId8"/>
+    <sheet name="RDQT 6.0.7" sheetId="16" r:id="rId1"/>
+    <sheet name="RDQT 6.0.6" sheetId="15" r:id="rId2"/>
+    <sheet name="RDQT 6.0.5" sheetId="14" r:id="rId3"/>
+    <sheet name="RDQT 6.0.4" sheetId="13" r:id="rId4"/>
+    <sheet name="RDQT 6.0.3" sheetId="12" r:id="rId5"/>
+    <sheet name="RDQT 6.0.2" sheetId="11" r:id="rId6"/>
+    <sheet name="RDQT 1.0.2" sheetId="10" r:id="rId7"/>
+    <sheet name="RDQT 1.0.1" sheetId="9" r:id="rId8"/>
+    <sheet name="RDQT 1.0.0" sheetId="8" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="Light">[1]List!$A$2:$A$6</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="73">
   <si>
     <t>Pass</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -321,6 +322,9 @@
   </si>
   <si>
     <t>6.0.5</t>
+  </si>
+  <si>
+    <t>6.0.7</t>
   </si>
 </sst>
 </file>
@@ -483,7 +487,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -516,6 +520,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -970,7 +977,7 @@
   </sheetPr>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J12" sqref="J12:L12"/>
     </sheetView>
   </sheetViews>
@@ -986,14 +993,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="28"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="15" t="s">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -1004,48 +1011,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="33" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="36"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="33" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="37">
-        <v>44411</v>
-      </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="36"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="38">
+        <v>44440</v>
+      </c>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="37"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
@@ -1054,24 +1061,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1">
       <c r="A5" s="4">
@@ -1080,22 +1087,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:12" ht="40.9" customHeight="1">
       <c r="A6" s="4">
@@ -1104,22 +1111,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="18"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" spans="1:12" ht="59.45" customHeight="1">
       <c r="A7" s="4">
@@ -1128,22 +1135,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="18"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="19"/>
     </row>
     <row r="8" spans="1:12" ht="59.45" customHeight="1">
       <c r="A8" s="4">
@@ -1152,22 +1159,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1">
       <c r="A9" s="4">
@@ -1176,22 +1183,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1">
       <c r="A10" s="4">
@@ -1200,22 +1207,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
       <c r="H10" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
     </row>
     <row r="11" spans="1:12" ht="52.15" customHeight="1">
       <c r="A11" s="4">
@@ -1224,24 +1231,24 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="22" t="s">
+      <c r="J11" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1">
       <c r="A12" s="4">
@@ -1250,22 +1257,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
     </row>
     <row r="13" spans="1:12" ht="70.900000000000006" customHeight="1">
       <c r="A13" s="4">
@@ -1274,22 +1281,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="18"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19"/>
     </row>
     <row r="14" spans="1:12" ht="59.45" customHeight="1">
       <c r="A14" s="4">
@@ -1298,22 +1305,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="18"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19"/>
     </row>
     <row r="15" spans="1:12" ht="59.45" customHeight="1">
       <c r="A15" s="10">
@@ -1322,18 +1329,18 @@
       <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
       <c r="H15" s="4"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="18"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
     </row>
     <row r="16" spans="1:12" ht="59.45" customHeight="1">
       <c r="A16" s="10">
@@ -1342,18 +1349,18 @@
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
       <c r="H16" s="4"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="18"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="19"/>
     </row>
     <row r="17" spans="1:12" ht="59.45" customHeight="1">
       <c r="A17" s="10">
@@ -1362,18 +1369,18 @@
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="18"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="19"/>
     </row>
     <row r="18" spans="1:12" ht="59.45" customHeight="1">
       <c r="A18" s="10">
@@ -1382,18 +1389,18 @@
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
       <c r="H18" s="4"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="18"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="19"/>
     </row>
     <row r="19" spans="1:12" ht="59.45" customHeight="1">
       <c r="A19" s="4">
@@ -1402,36 +1409,36 @@
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="16" t="s">
+      <c r="J19" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="17"/>
-      <c r="L19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="19"/>
     </row>
     <row r="20" spans="1:12" ht="59.45" customHeight="1">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
       <c r="H20" s="4"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="18"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -1491,8 +1498,8 @@
   </sheetPr>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1507,14 +1514,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="28"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="14" t="s">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="15" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -1525,48 +1532,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="33" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="36"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="33" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="37">
+      <c r="G3" s="35"/>
+      <c r="H3" s="38">
         <v>44411</v>
       </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="36"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="37"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
@@ -1575,24 +1582,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1">
       <c r="A5" s="4">
@@ -1601,22 +1608,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:12" ht="40.9" customHeight="1">
       <c r="A6" s="4">
@@ -1625,22 +1632,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="18"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" spans="1:12" ht="59.45" customHeight="1">
       <c r="A7" s="4">
@@ -1649,22 +1656,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="18"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="19"/>
     </row>
     <row r="8" spans="1:12" ht="59.45" customHeight="1">
       <c r="A8" s="4">
@@ -1673,22 +1680,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1">
       <c r="A9" s="4">
@@ -1697,22 +1704,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1">
       <c r="A10" s="4">
@@ -1721,22 +1728,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
       <c r="H10" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
     </row>
     <row r="11" spans="1:12" ht="52.15" customHeight="1">
       <c r="A11" s="4">
@@ -1745,24 +1752,24 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="22" t="s">
+      <c r="J11" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1">
       <c r="A12" s="4">
@@ -1771,22 +1778,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
     </row>
     <row r="13" spans="1:12" ht="70.900000000000006" customHeight="1">
       <c r="A13" s="4">
@@ -1795,22 +1802,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="18"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19"/>
     </row>
     <row r="14" spans="1:12" ht="59.45" customHeight="1">
       <c r="A14" s="4">
@@ -1819,22 +1826,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="18"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19"/>
     </row>
     <row r="15" spans="1:12" ht="59.45" customHeight="1">
       <c r="A15" s="10">
@@ -1843,18 +1850,18 @@
       <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
       <c r="H15" s="4"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="18"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
     </row>
     <row r="16" spans="1:12" ht="59.45" customHeight="1">
       <c r="A16" s="10">
@@ -1863,18 +1870,18 @@
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
       <c r="H16" s="4"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="18"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="19"/>
     </row>
     <row r="17" spans="1:12" ht="59.45" customHeight="1">
       <c r="A17" s="10">
@@ -1883,18 +1890,18 @@
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="18"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="19"/>
     </row>
     <row r="18" spans="1:12" ht="59.45" customHeight="1">
       <c r="A18" s="10">
@@ -1903,18 +1910,18 @@
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
       <c r="H18" s="4"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="18"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="19"/>
     </row>
     <row r="19" spans="1:12" ht="59.45" customHeight="1">
       <c r="A19" s="4">
@@ -1923,36 +1930,36 @@
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="16" t="s">
+      <c r="J19" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="17"/>
-      <c r="L19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="19"/>
     </row>
     <row r="20" spans="1:12" ht="59.45" customHeight="1">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
       <c r="H20" s="4"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="18"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -2013,7 +2020,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2028,14 +2035,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="28"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="13" t="s">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -2046,48 +2053,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="33" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="36"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="33" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="37">
-        <v>44396</v>
-      </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="36"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="38">
+        <v>44411</v>
+      </c>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="37"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
@@ -2096,24 +2103,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1">
       <c r="A5" s="4">
@@ -2122,22 +2129,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:12" ht="40.9" customHeight="1">
       <c r="A6" s="4">
@@ -2146,22 +2153,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="18"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" spans="1:12" ht="59.45" customHeight="1">
       <c r="A7" s="4">
@@ -2170,22 +2177,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="18"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="19"/>
     </row>
     <row r="8" spans="1:12" ht="59.45" customHeight="1">
       <c r="A8" s="4">
@@ -2194,22 +2201,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1">
       <c r="A9" s="4">
@@ -2218,22 +2225,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1">
       <c r="A10" s="4">
@@ -2242,22 +2249,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
       <c r="H10" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
     </row>
     <row r="11" spans="1:12" ht="52.15" customHeight="1">
       <c r="A11" s="4">
@@ -2266,24 +2273,24 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="22" t="s">
+      <c r="J11" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1">
       <c r="A12" s="4">
@@ -2292,22 +2299,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
     </row>
     <row r="13" spans="1:12" ht="70.900000000000006" customHeight="1">
       <c r="A13" s="4">
@@ -2316,22 +2323,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="18"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19"/>
     </row>
     <row r="14" spans="1:12" ht="59.45" customHeight="1">
       <c r="A14" s="4">
@@ -2340,22 +2347,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="18"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19"/>
     </row>
     <row r="15" spans="1:12" ht="59.45" customHeight="1">
       <c r="A15" s="10">
@@ -2364,18 +2371,18 @@
       <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
       <c r="H15" s="4"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="18"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
     </row>
     <row r="16" spans="1:12" ht="59.45" customHeight="1">
       <c r="A16" s="10">
@@ -2384,18 +2391,18 @@
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
       <c r="H16" s="4"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="18"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="19"/>
     </row>
     <row r="17" spans="1:12" ht="59.45" customHeight="1">
       <c r="A17" s="10">
@@ -2404,18 +2411,18 @@
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="18"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="19"/>
     </row>
     <row r="18" spans="1:12" ht="59.45" customHeight="1">
       <c r="A18" s="10">
@@ -2424,18 +2431,18 @@
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
       <c r="H18" s="4"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="18"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="19"/>
     </row>
     <row r="19" spans="1:12" ht="59.45" customHeight="1">
       <c r="A19" s="4">
@@ -2444,36 +2451,36 @@
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="16" t="s">
+      <c r="J19" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="17"/>
-      <c r="L19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="19"/>
     </row>
     <row r="20" spans="1:12" ht="59.45" customHeight="1">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
       <c r="H20" s="4"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="18"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -2534,7 +2541,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9:L9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2549,14 +2556,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="28"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="12" t="s">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -2567,48 +2574,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="33" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="36"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="33" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="37">
-        <v>44392</v>
-      </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="36"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="38">
+        <v>44396</v>
+      </c>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="37"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
@@ -2617,24 +2624,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1">
       <c r="A5" s="4">
@@ -2643,22 +2650,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:12" ht="40.9" customHeight="1">
       <c r="A6" s="4">
@@ -2667,22 +2674,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="18"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" spans="1:12" ht="59.45" customHeight="1">
       <c r="A7" s="4">
@@ -2691,22 +2698,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="18"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="19"/>
     </row>
     <row r="8" spans="1:12" ht="59.45" customHeight="1">
       <c r="A8" s="4">
@@ -2715,22 +2722,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1">
       <c r="A9" s="4">
@@ -2739,22 +2746,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1">
       <c r="A10" s="4">
@@ -2763,22 +2770,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
       <c r="H10" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
     </row>
     <row r="11" spans="1:12" ht="52.15" customHeight="1">
       <c r="A11" s="4">
@@ -2787,24 +2794,24 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="22" t="s">
+      <c r="J11" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1">
       <c r="A12" s="4">
@@ -2813,22 +2820,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
     </row>
     <row r="13" spans="1:12" ht="70.900000000000006" customHeight="1">
       <c r="A13" s="4">
@@ -2837,22 +2844,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="18"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19"/>
     </row>
     <row r="14" spans="1:12" ht="59.45" customHeight="1">
       <c r="A14" s="4">
@@ -2861,22 +2868,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="18"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19"/>
     </row>
     <row r="15" spans="1:12" ht="59.45" customHeight="1">
       <c r="A15" s="10">
@@ -2885,18 +2892,18 @@
       <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
       <c r="H15" s="4"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="18"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
     </row>
     <row r="16" spans="1:12" ht="59.45" customHeight="1">
       <c r="A16" s="10">
@@ -2905,18 +2912,18 @@
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
       <c r="H16" s="4"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="18"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="19"/>
     </row>
     <row r="17" spans="1:12" ht="59.45" customHeight="1">
       <c r="A17" s="10">
@@ -2925,18 +2932,18 @@
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="18"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="19"/>
     </row>
     <row r="18" spans="1:12" ht="59.45" customHeight="1">
       <c r="A18" s="10">
@@ -2945,18 +2952,18 @@
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
       <c r="H18" s="4"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="18"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="19"/>
     </row>
     <row r="19" spans="1:12" ht="59.45" customHeight="1">
       <c r="A19" s="4">
@@ -2965,36 +2972,36 @@
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="16" t="s">
+      <c r="J19" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="17"/>
-      <c r="L19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="19"/>
     </row>
     <row r="20" spans="1:12" ht="59.45" customHeight="1">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
       <c r="H20" s="4"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="18"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -3055,7 +3062,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E3"/>
+      <selection activeCell="J9" sqref="J9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -3070,14 +3077,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="28"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="11" t="s">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -3088,48 +3095,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="33" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="36"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="33" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="37">
-        <v>44361</v>
-      </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="36"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="38">
+        <v>44392</v>
+      </c>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="37"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
@@ -3138,24 +3145,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1">
       <c r="A5" s="4">
@@ -3164,22 +3171,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:12" ht="40.9" customHeight="1">
       <c r="A6" s="4">
@@ -3188,22 +3195,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="18"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" spans="1:12" ht="59.45" customHeight="1">
       <c r="A7" s="4">
@@ -3212,22 +3219,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="18"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="19"/>
     </row>
     <row r="8" spans="1:12" ht="59.45" customHeight="1">
       <c r="A8" s="4">
@@ -3236,22 +3243,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1">
       <c r="A9" s="4">
@@ -3260,22 +3267,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1">
       <c r="A10" s="4">
@@ -3284,22 +3291,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
       <c r="H10" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
     </row>
     <row r="11" spans="1:12" ht="52.15" customHeight="1">
       <c r="A11" s="4">
@@ -3308,22 +3315,24 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
+        <v>67</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1">
       <c r="A12" s="4">
@@ -3332,22 +3341,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
     </row>
     <row r="13" spans="1:12" ht="70.900000000000006" customHeight="1">
       <c r="A13" s="4">
@@ -3356,22 +3365,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="18"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19"/>
     </row>
     <row r="14" spans="1:12" ht="59.45" customHeight="1">
       <c r="A14" s="4">
@@ -3380,22 +3389,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="18"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19"/>
     </row>
     <row r="15" spans="1:12" ht="59.45" customHeight="1">
       <c r="A15" s="10">
@@ -3404,18 +3413,18 @@
       <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
       <c r="H15" s="4"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="18"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
     </row>
     <row r="16" spans="1:12" ht="59.45" customHeight="1">
       <c r="A16" s="10">
@@ -3424,18 +3433,18 @@
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
       <c r="H16" s="4"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="18"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="19"/>
     </row>
     <row r="17" spans="1:12" ht="59.45" customHeight="1">
       <c r="A17" s="10">
@@ -3444,18 +3453,18 @@
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="18"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="19"/>
     </row>
     <row r="18" spans="1:12" ht="59.45" customHeight="1">
       <c r="A18" s="10">
@@ -3464,18 +3473,18 @@
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
       <c r="H18" s="4"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="18"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="19"/>
     </row>
     <row r="19" spans="1:12" ht="59.45" customHeight="1">
       <c r="A19" s="4">
@@ -3484,36 +3493,36 @@
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="16" t="s">
+      <c r="J19" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="17"/>
-      <c r="L19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="19"/>
     </row>
     <row r="20" spans="1:12" ht="59.45" customHeight="1">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
       <c r="H20" s="4"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="18"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -3574,7 +3583,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G7"/>
+      <selection activeCell="C3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -3589,14 +3598,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="28"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="8" t="s">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -3607,48 +3616,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="33" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="36"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="33" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="37">
-        <v>43654</v>
-      </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="36"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="38">
+        <v>44361</v>
+      </c>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="37"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
@@ -3657,24 +3666,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1">
       <c r="A5" s="4">
@@ -3683,22 +3692,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:12" ht="40.9" customHeight="1">
       <c r="A6" s="4">
@@ -3707,22 +3716,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="18"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" spans="1:12" ht="59.45" customHeight="1">
       <c r="A7" s="4">
@@ -3731,22 +3740,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="18"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="19"/>
     </row>
     <row r="8" spans="1:12" ht="59.45" customHeight="1">
       <c r="A8" s="4">
@@ -3755,22 +3764,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1">
       <c r="A9" s="4">
@@ -3779,22 +3788,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1">
       <c r="A10" s="4">
@@ -3803,22 +3812,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
       <c r="H10" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
     </row>
     <row r="11" spans="1:12" ht="52.15" customHeight="1">
       <c r="A11" s="4">
@@ -3827,22 +3836,22 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1">
       <c r="A12" s="4">
@@ -3851,22 +3860,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
     </row>
     <row r="13" spans="1:12" ht="70.900000000000006" customHeight="1">
       <c r="A13" s="4">
@@ -3875,22 +3884,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="18"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19"/>
     </row>
     <row r="14" spans="1:12" ht="59.45" customHeight="1">
       <c r="A14" s="4">
@@ -3899,22 +3908,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="18"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19"/>
     </row>
     <row r="15" spans="1:12" ht="59.45" customHeight="1">
       <c r="A15" s="10">
@@ -3923,22 +3932,18 @@
       <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="18"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
     </row>
     <row r="16" spans="1:12" ht="59.45" customHeight="1">
       <c r="A16" s="10">
@@ -3947,22 +3952,18 @@
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="18"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="19"/>
     </row>
     <row r="17" spans="1:12" ht="59.45" customHeight="1">
       <c r="A17" s="10">
@@ -3971,22 +3972,18 @@
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="16"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="18"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="19"/>
     </row>
     <row r="18" spans="1:12" ht="59.45" customHeight="1">
       <c r="A18" s="10">
@@ -3995,22 +3992,18 @@
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" s="16"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="18"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="19"/>
     </row>
     <row r="19" spans="1:12" ht="59.45" customHeight="1">
       <c r="A19" s="4">
@@ -4019,40 +4012,36 @@
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19" s="16"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" s="18"/>
+      <c r="L19" s="19"/>
     </row>
     <row r="20" spans="1:12" ht="59.45" customHeight="1">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="4"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="18"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -4100,7 +4089,6 @@
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="J18:L18"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4111,10 +4099,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -4129,14 +4117,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="28"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="7" t="s">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -4147,48 +4135,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="33" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="36"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="33" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="37">
-        <v>43189</v>
-      </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="36"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="38">
+        <v>43654</v>
+      </c>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="37"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
@@ -4197,24 +4185,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1">
       <c r="A5" s="4">
@@ -4223,22 +4211,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
+      <c r="C5" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:12" ht="40.9" customHeight="1">
       <c r="A6" s="4">
@@ -4247,22 +4235,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="18"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" spans="1:12" ht="59.45" customHeight="1">
       <c r="A7" s="4">
@@ -4271,22 +4259,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="18"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="19"/>
     </row>
     <row r="8" spans="1:12" ht="59.45" customHeight="1">
       <c r="A8" s="4">
@@ -4295,22 +4283,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1">
       <c r="A9" s="4">
@@ -4319,22 +4307,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1">
       <c r="A10" s="4">
@@ -4343,22 +4331,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
       <c r="H10" s="4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
     </row>
     <row r="11" spans="1:12" ht="52.15" customHeight="1">
       <c r="A11" s="4">
@@ -4367,22 +4355,22 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1">
       <c r="A12" s="4">
@@ -4391,22 +4379,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
     </row>
     <row r="13" spans="1:12" ht="70.900000000000006" customHeight="1">
       <c r="A13" s="4">
@@ -4415,22 +4403,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="18"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19"/>
     </row>
     <row r="14" spans="1:12" ht="59.45" customHeight="1">
       <c r="A14" s="4">
@@ -4439,142 +4427,185 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="18"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19"/>
     </row>
     <row r="15" spans="1:12" ht="59.45" customHeight="1">
-      <c r="A15" s="4">
+      <c r="A15" s="10">
         <v>11</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
       <c r="H15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="18"/>
+        <v>60</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="23"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
     </row>
     <row r="16" spans="1:12" ht="59.45" customHeight="1">
-      <c r="A16" s="4">
+      <c r="A16" s="10">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
       <c r="H16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="18"/>
+        <v>60</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="23"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="19"/>
     </row>
     <row r="17" spans="1:12" ht="59.45" customHeight="1">
-      <c r="A17" s="4">
+      <c r="A17" s="10">
         <v>13</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
       <c r="H17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="18"/>
+        <v>60</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="19"/>
     </row>
     <row r="18" spans="1:12" ht="59.45" customHeight="1">
-      <c r="A18" s="4">
+      <c r="A18" s="10">
         <v>14</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
+      <c r="C18" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
       <c r="H18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18" s="17"/>
-      <c r="L18" s="18"/>
-    </row>
-    <row r="19" spans="1:12" ht="12.75" customHeight="1"/>
+        <v>60</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="17"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="19"/>
+    </row>
+    <row r="19" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A19" s="4">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="17"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="19"/>
+    </row>
+    <row r="20" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A20" s="4">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="43">
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="J16:L16"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="J17:L17"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="J18:L18"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="J13:L13"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="J15:L15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="J13:L13"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="J12:L12"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="C8:G8"/>
@@ -4608,6 +4639,503 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="8.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="2" customWidth="1"/>
+    <col min="3" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="11.375" style="2" customWidth="1"/>
+    <col min="9" max="11" width="9" style="2"/>
+    <col min="12" max="12" width="51" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="37"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="35"/>
+      <c r="H3" s="38">
+        <v>43189</v>
+      </c>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="37"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+    </row>
+    <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="17"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:12" ht="40.9" customHeight="1">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="23"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="19"/>
+    </row>
+    <row r="7" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="23"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="23"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+    </row>
+    <row r="9" spans="1:12" ht="51" customHeight="1">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" spans="1:12" ht="51" customHeight="1">
+      <c r="A10" s="4">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="17"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+    </row>
+    <row r="11" spans="1:12" ht="52.15" customHeight="1">
+      <c r="A11" s="4">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="23"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
+    </row>
+    <row r="12" spans="1:12" ht="49.9" customHeight="1">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="23"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
+    </row>
+    <row r="13" spans="1:12" ht="70.900000000000006" customHeight="1">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="23"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19"/>
+    </row>
+    <row r="14" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A14" s="4">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="23"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19"/>
+    </row>
+    <row r="15" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A15" s="4">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="23"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A16" s="4">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="23"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="19"/>
+    </row>
+    <row r="17" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A17" s="4">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="23"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="19"/>
+    </row>
+    <row r="18" spans="1:12" ht="59.45" customHeight="1">
+      <c r="A18" s="4">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="18"/>
+      <c r="L18" s="19"/>
+    </row>
+    <row r="19" spans="1:12" ht="12.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="39">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="J16:L16"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4624,13 +5152,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="28"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4642,48 +5170,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="33" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35" t="s">
+      <c r="G2" s="35"/>
+      <c r="H2" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="36"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="37"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="33" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="37">
+      <c r="G3" s="35"/>
+      <c r="H3" s="38">
         <v>43041</v>
       </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="36"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="37"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
@@ -4692,24 +5220,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1">
       <c r="A5" s="4">
@@ -4718,24 +5246,24 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:12" ht="40.9" customHeight="1">
       <c r="A6" s="4">
@@ -4744,22 +5272,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="18"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="19"/>
     </row>
     <row r="7" spans="1:12" ht="59.45" customHeight="1">
       <c r="A7" s="4">
@@ -4768,22 +5296,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="18"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="19"/>
     </row>
     <row r="8" spans="1:12" ht="59.45" customHeight="1">
       <c r="A8" s="4">
@@ -4792,22 +5320,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1">
       <c r="A9" s="4">
@@ -4816,24 +5344,24 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:12" ht="59.45" customHeight="1">
       <c r="A10" s="4">
@@ -4842,22 +5370,22 @@
       <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="18"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
     </row>
     <row r="11" spans="1:12" ht="51" customHeight="1">
       <c r="A11" s="4">
@@ -4866,24 +5394,24 @@
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
       <c r="H11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="J11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="17"/>
-      <c r="L11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
     </row>
     <row r="12" spans="1:12" ht="52.15" customHeight="1">
       <c r="A12" s="4">
@@ -4892,54 +5420,54 @@
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
     </row>
     <row r="13" spans="1:12" ht="49.9" customHeight="1">
       <c r="A13" s="4">
         <v>9</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27"/>
     </row>
     <row r="14" spans="1:12" ht="70.900000000000006" customHeight="1">
       <c r="A14" s="4">
         <v>10</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="18"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19"/>
     </row>
     <row r="15" spans="1:12" ht="59.45" customHeight="1"/>
     <row r="16" spans="1:12" ht="59.45" customHeight="1"/>
@@ -4949,6 +5477,28 @@
     <row r="20" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="C6:G6"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:G3"/>
@@ -4958,28 +5508,6 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:L2"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="J12:L12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5132,6 +5660,27 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="72de59d5-254d-430a-8862-e2bf58cab753">6TCUH2D2FU37-209-14453</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="72de59d5-254d-430a-8862-e2bf58cab753">
+      <Url>http://intranet.tymphany.com/Departments/sw/_layouts/15/DocIdRedir.aspx?ID=6TCUH2D2FU37-209-14453</Url>
+      <Description>6TCUH2D2FU37-209-14453</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -5181,27 +5730,6 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="72de59d5-254d-430a-8862-e2bf58cab753">6TCUH2D2FU37-209-14453</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="72de59d5-254d-430a-8862-e2bf58cab753">
-      <Url>http://intranet.tymphany.com/Departments/sw/_layouts/15/DocIdRedir.aspx?ID=6TCUH2D2FU37-209-14453</Url>
-      <Description>6TCUH2D2FU37-209-14453</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6290CC7F-B9B0-4D98-A55D-A30816CE8732}">
   <ds:schemaRefs>
@@ -5221,9 +5749,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFF19337-409A-4CFF-80EA-D2526D7612D6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90A17C51-7000-43B7-9373-E2C13FAD8445}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="72de59d5-254d-430a-8862-e2bf58cab753"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5237,17 +5773,9 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90A17C51-7000-43B7-9373-E2C13FAD8445}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFF19337-409A-4CFF-80EA-D2526D7612D6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="72de59d5-254d-430a-8862-e2bf58cab753"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>